--- a/test.xlsx
+++ b/test.xlsx
@@ -10,6 +10,7 @@
     <sheet name="dotoryeee" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="test3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="test2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="copied sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,14 +417,100 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -434,14 +521,100 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1" t="n">
+        <v>66</v>
+      </c>
+      <c r="D1" t="n">
+        <v>72</v>
+      </c>
+      <c r="E1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>84</v>
+      </c>
+      <c r="B4" t="n">
+        <v>49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -453,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +640,613 @@
           <t>test</t>
         </is>
       </c>
-    </row>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yeah</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>수학</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>61</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>74</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="n">
+        <v>47</v>
+      </c>
+      <c r="C12" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>72</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="n">
+        <v>87</v>
+      </c>
+      <c r="C15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="n">
+        <v>77</v>
+      </c>
+      <c r="C17" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="n">
+        <v>76</v>
+      </c>
+      <c r="C18" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>70</v>
+      </c>
+      <c r="C19" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" t="n">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" t="n">
+        <v>61</v>
+      </c>
+      <c r="C21" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="n">
+        <v>51</v>
+      </c>
+      <c r="C22" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>38</v>
+      </c>
+      <c r="C23" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="n">
+        <v>47</v>
+      </c>
+      <c r="C24" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>34</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" t="n">
+        <v>81</v>
+      </c>
+      <c r="C28" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n">
+        <v>94</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
+      </c>
+      <c r="C30" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n">
+        <v>43</v>
+      </c>
+      <c r="C32" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="n">
+        <v>34</v>
+      </c>
+      <c r="C33" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" t="n">
+        <v>65</v>
+      </c>
+      <c r="C36" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" t="n">
+        <v>85</v>
+      </c>
+      <c r="C37" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" t="n">
+        <v>49</v>
+      </c>
+      <c r="C38" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" t="n">
+        <v>49</v>
+      </c>
+      <c r="C39" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="n">
+        <v>35</v>
+      </c>
+      <c r="C40" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" t="n">
+        <v>65</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25</v>
+      </c>
+      <c r="C42" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" t="n">
+        <v>69</v>
+      </c>
+      <c r="C43" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="n">
+        <v>47</v>
+      </c>
+      <c r="C45" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" t="n">
+        <v>94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>45</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" t="n">
+        <v>90</v>
+      </c>
+      <c r="C49" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>47</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>48</v>
+      </c>
+      <c r="B51" t="n">
+        <v>21</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" t="n">
+        <v>26</v>
+      </c>
+      <c r="C53" t="n">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00aaaaaa"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yeah</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -531,87 +531,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B1" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C1" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" t="n">
         <v>38</v>
       </c>
-      <c r="D5" t="n">
-        <v>74</v>
-      </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,14 +653,14 @@
           <t>번호</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>컴퓨터</t>
         </is>
       </c>
     </row>
@@ -668,550 +668,550 @@
       <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>28</v>
-      </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>88</v>
-      </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>32</v>
-      </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>89</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>61</v>
-      </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>74</v>
-      </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>82</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>35</v>
-      </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>93</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>9</v>
       </c>
-      <c r="B12" t="n">
-        <v>47</v>
-      </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="D12" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>24</v>
-      </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="D13" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
-        <v>72</v>
-      </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>87</v>
-      </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>65</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
+        <v>78</v>
+      </c>
+      <c r="D16" t="n">
         <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>14</v>
       </c>
-      <c r="B17" t="n">
-        <v>77</v>
-      </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="D17" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>76</v>
-      </c>
       <c r="C18" t="n">
-        <v>87</v>
+        <v>52</v>
+      </c>
+      <c r="D18" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
-        <v>70</v>
-      </c>
       <c r="C19" t="n">
-        <v>90</v>
+        <v>43</v>
+      </c>
+      <c r="D19" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
-        <v>26</v>
-      </c>
       <c r="C20" t="n">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>18</v>
       </c>
-      <c r="B21" t="n">
-        <v>61</v>
-      </c>
       <c r="C21" t="n">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="D21" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
-        <v>51</v>
-      </c>
       <c r="C22" t="n">
         <v>76</v>
+      </c>
+      <c r="D22" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20</v>
       </c>
-      <c r="B23" t="n">
-        <v>38</v>
-      </c>
       <c r="C23" t="n">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="D23" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>21</v>
       </c>
-      <c r="B24" t="n">
-        <v>47</v>
-      </c>
       <c r="C24" t="n">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>22</v>
       </c>
-      <c r="B25" t="n">
-        <v>9</v>
-      </c>
       <c r="C25" t="n">
-        <v>88</v>
+        <v>48</v>
+      </c>
+      <c r="D25" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>23</v>
       </c>
-      <c r="B26" t="n">
-        <v>23</v>
-      </c>
       <c r="C26" t="n">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>24</v>
       </c>
-      <c r="B27" t="n">
-        <v>34</v>
-      </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>25</v>
       </c>
-      <c r="B28" t="n">
-        <v>81</v>
-      </c>
       <c r="C28" t="n">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>26</v>
       </c>
-      <c r="B29" t="n">
-        <v>94</v>
-      </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27</v>
       </c>
-      <c r="B30" t="n">
-        <v>12</v>
-      </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28</v>
       </c>
-      <c r="B31" t="n">
-        <v>8</v>
-      </c>
       <c r="C31" t="n">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="D31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>29</v>
       </c>
-      <c r="B32" t="n">
-        <v>43</v>
-      </c>
       <c r="C32" t="n">
-        <v>96</v>
+        <v>58</v>
+      </c>
+      <c r="D32" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>30</v>
       </c>
-      <c r="B33" t="n">
-        <v>34</v>
-      </c>
       <c r="C33" t="n">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="D33" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31</v>
       </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>99</v>
+      </c>
+      <c r="D34" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32</v>
       </c>
-      <c r="B35" t="n">
-        <v>32</v>
-      </c>
       <c r="C35" t="n">
-        <v>98</v>
+        <v>17</v>
+      </c>
+      <c r="D35" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33</v>
       </c>
-      <c r="B36" t="n">
-        <v>65</v>
-      </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D36" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>34</v>
       </c>
-      <c r="B37" t="n">
-        <v>85</v>
-      </c>
       <c r="C37" t="n">
-        <v>95</v>
+        <v>83</v>
+      </c>
+      <c r="D37" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35</v>
       </c>
-      <c r="B38" t="n">
-        <v>49</v>
-      </c>
       <c r="C38" t="n">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D38" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36</v>
       </c>
-      <c r="B39" t="n">
-        <v>49</v>
-      </c>
       <c r="C39" t="n">
-        <v>96</v>
+        <v>85</v>
+      </c>
+      <c r="D39" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37</v>
       </c>
-      <c r="B40" t="n">
-        <v>35</v>
-      </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>82</v>
+      </c>
+      <c r="D40" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38</v>
       </c>
-      <c r="B41" t="n">
-        <v>65</v>
-      </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D41" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39</v>
       </c>
-      <c r="B42" t="n">
-        <v>25</v>
-      </c>
       <c r="C42" t="n">
-        <v>60</v>
+        <v>96</v>
+      </c>
+      <c r="D42" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>40</v>
       </c>
-      <c r="B43" t="n">
-        <v>69</v>
-      </c>
       <c r="C43" t="n">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="D43" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41</v>
       </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42</v>
       </c>
-      <c r="B45" t="n">
-        <v>47</v>
-      </c>
       <c r="C45" t="n">
-        <v>59</v>
+        <v>99</v>
+      </c>
+      <c r="D45" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>43</v>
       </c>
-      <c r="B46" t="n">
-        <v>94</v>
-      </c>
       <c r="C46" t="n">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D46" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>44</v>
       </c>
-      <c r="B47" t="n">
-        <v>6</v>
-      </c>
       <c r="C47" t="n">
-        <v>95</v>
+        <v>59</v>
+      </c>
+      <c r="D47" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>45</v>
       </c>
-      <c r="B48" t="n">
-        <v>8</v>
-      </c>
       <c r="C48" t="n">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="D48" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>46</v>
       </c>
-      <c r="B49" t="n">
-        <v>90</v>
-      </c>
       <c r="C49" t="n">
-        <v>82</v>
+        <v>41</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>47</v>
       </c>
-      <c r="B50" t="n">
-        <v>2</v>
-      </c>
       <c r="C50" t="n">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D50" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>48</v>
       </c>
-      <c r="B51" t="n">
-        <v>21</v>
-      </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>49</v>
       </c>
-      <c r="B52" t="n">
-        <v>6</v>
-      </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="D52" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>50</v>
       </c>
-      <c r="B53" t="n">
-        <v>26</v>
-      </c>
       <c r="C53" t="n">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,7 +1246,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,6 +11,8 @@
     <sheet name="test3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="test2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="copied sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="sheet2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="sheet21" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +21,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -49,8 +53,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -531,87 +536,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B1" t="n">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C1" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D1" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E1" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C5" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -653,565 +658,410 @@
           <t>번호</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>컴퓨터</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>62</v>
-      </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>71</v>
-      </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
       <c r="D6" t="n">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>89</v>
-      </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>29</v>
-      </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
-        <v>82</v>
-      </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
-        <v>93</v>
-      </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>9</v>
       </c>
-      <c r="C12" t="n">
-        <v>38</v>
-      </c>
       <c r="D12" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
-        <v>69</v>
-      </c>
       <c r="D13" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11</v>
       </c>
-      <c r="C14" t="n">
-        <v>56</v>
-      </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>12</v>
       </c>
-      <c r="C15" t="n">
-        <v>65</v>
-      </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>13</v>
       </c>
-      <c r="C16" t="n">
-        <v>78</v>
-      </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>14</v>
       </c>
-      <c r="C17" t="n">
-        <v>83</v>
-      </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>15</v>
       </c>
-      <c r="C18" t="n">
-        <v>52</v>
-      </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>16</v>
       </c>
-      <c r="C19" t="n">
-        <v>43</v>
-      </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>17</v>
       </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>18</v>
       </c>
-      <c r="C21" t="n">
-        <v>52</v>
-      </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>19</v>
       </c>
-      <c r="C22" t="n">
-        <v>76</v>
-      </c>
       <c r="D22" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20</v>
       </c>
-      <c r="C23" t="n">
-        <v>66</v>
-      </c>
       <c r="D23" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>21</v>
       </c>
-      <c r="C24" t="n">
-        <v>57</v>
-      </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>22</v>
       </c>
-      <c r="C25" t="n">
-        <v>48</v>
-      </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>23</v>
       </c>
-      <c r="C26" t="n">
-        <v>94</v>
-      </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>24</v>
       </c>
-      <c r="C27" t="n">
-        <v>11</v>
-      </c>
       <c r="D27" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>25</v>
       </c>
-      <c r="C28" t="n">
-        <v>94</v>
-      </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>26</v>
       </c>
-      <c r="C29" t="n">
-        <v>16</v>
-      </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27</v>
       </c>
-      <c r="C30" t="n">
-        <v>18</v>
-      </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28</v>
       </c>
-      <c r="C31" t="n">
-        <v>66</v>
-      </c>
       <c r="D31" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>29</v>
       </c>
-      <c r="C32" t="n">
-        <v>58</v>
-      </c>
       <c r="D32" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>30</v>
       </c>
-      <c r="C33" t="n">
-        <v>74</v>
-      </c>
       <c r="D33" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31</v>
       </c>
-      <c r="C34" t="n">
-        <v>99</v>
-      </c>
       <c r="D34" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32</v>
       </c>
-      <c r="C35" t="n">
-        <v>17</v>
-      </c>
       <c r="D35" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33</v>
       </c>
-      <c r="C36" t="n">
-        <v>29</v>
-      </c>
       <c r="D36" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>34</v>
       </c>
-      <c r="C37" t="n">
-        <v>83</v>
-      </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35</v>
       </c>
-      <c r="C38" t="n">
-        <v>58</v>
-      </c>
       <c r="D38" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36</v>
       </c>
-      <c r="C39" t="n">
-        <v>85</v>
-      </c>
       <c r="D39" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37</v>
       </c>
-      <c r="C40" t="n">
-        <v>82</v>
-      </c>
       <c r="D40" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38</v>
       </c>
-      <c r="C41" t="n">
-        <v>21</v>
-      </c>
       <c r="D41" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39</v>
       </c>
-      <c r="C42" t="n">
-        <v>96</v>
-      </c>
       <c r="D42" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>40</v>
       </c>
-      <c r="C43" t="n">
-        <v>86</v>
-      </c>
       <c r="D43" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41</v>
       </c>
-      <c r="C44" t="n">
-        <v>4</v>
-      </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42</v>
       </c>
-      <c r="C45" t="n">
-        <v>99</v>
-      </c>
       <c r="D45" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>43</v>
       </c>
-      <c r="C46" t="n">
-        <v>45</v>
-      </c>
       <c r="D46" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>44</v>
       </c>
-      <c r="C47" t="n">
-        <v>59</v>
-      </c>
       <c r="D47" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>45</v>
       </c>
-      <c r="C48" t="n">
-        <v>70</v>
-      </c>
       <c r="D48" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>46</v>
       </c>
-      <c r="C49" t="n">
-        <v>41</v>
-      </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>47</v>
       </c>
-      <c r="C50" t="n">
-        <v>65</v>
-      </c>
       <c r="D50" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>48</v>
       </c>
-      <c r="C51" t="n">
-        <v>9</v>
-      </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>49</v>
       </c>
-      <c r="C52" t="n">
-        <v>75</v>
-      </c>
       <c r="D52" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>50</v>
       </c>
-      <c r="C53" t="n">
-        <v>5</v>
-      </c>
       <c r="D53" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1249,4 +1099,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>44285.40088091435</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <f>sum(1, 2, 3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <f>average(6, 2, 1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <f>sum(A2:A3)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>44285.40309058273</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <f>sum(1, 2, 3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <f>average(6, 2, 1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <f>sum(A2:A3)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>